--- a/Diagnostics/local/Fitting_results.xlsx
+++ b/Diagnostics/local/Fitting_results.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE732BCA-08A5-49E6-A006-302E7AFD7275}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7607C198-9636-F44A-86A4-CA6F8FFC0F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31020" yWindow="1540" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -366,13 +366,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -397,7 +397,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -435,7 +435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>750</v>
       </c>
@@ -476,7 +476,7 @@
         <v>4.7899999999999998E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -517,7 +517,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1600</v>
       </c>
@@ -558,7 +558,7 @@
         <v>7.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1900</v>
       </c>
